--- a/code/数据库设计/势力设计.xlsx
+++ b/code/数据库设计/势力设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53627BE9-7452-4381-8390-DDADFC2440FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B95EB4-744F-4423-B2B5-5F45C2E3569A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>士燮军</t>
+    <t>黄巾军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -442,6 +442,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -453,6 +456,9 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -464,6 +470,9 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -475,6 +484,9 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -486,6 +498,9 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -497,6 +512,9 @@
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -508,6 +526,9 @@
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -519,6 +540,9 @@
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -528,7 +552,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,7 +566,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>192</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
